--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1200,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1292,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1453,7 +1453,7 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>Mat</t>
   </si>
@@ -82,94 +82,112 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>LLAME</t>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
+    <t>LAZARO</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>XALAMIHUA</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>AYELEN</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ROCIO</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>BITHIA MARIAN</t>
   </si>
   <si>
     <t>ELISA</t>
@@ -178,19 +196,49 @@
     <t>BRENDA JANET</t>
   </si>
   <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>CATHERIN DALAY</t>
-  </si>
-  <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
-    <t>EDUARDO ULISES</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
+    <t>ADOLFO ANTONIO</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>ANGEL ALEXIS</t>
+  </si>
+  <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>KARLA MICHEL</t>
+  </si>
+  <si>
+    <t>ROSA JATZIRI</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>VALERIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>NELLY MARLENE</t>
+  </si>
+  <si>
+    <t>CECILIA ARLETH</t>
+  </si>
+  <si>
+    <t>LAISHA STEFANY</t>
+  </si>
+  <si>
+    <t>DANA YARELI</t>
+  </si>
+  <si>
+    <t>ORIEL</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1159,22 +1207,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920151</v>
+        <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1182,16 +1230,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920292</v>
+        <v>19330051920269</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1205,22 +1253,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920136</v>
+        <v>19330051920268</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1228,22 +1276,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920139</v>
+        <v>19330051920274</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1251,22 +1299,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920260</v>
+        <v>18330051920242</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1274,22 +1322,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920102</v>
+        <v>19330051920449</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1297,16 +1345,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920269</v>
+        <v>19330051920279</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1315,21 +1363,21 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920268</v>
+        <v>19330051920447</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1338,21 +1386,21 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920443</v>
+        <v>19330051920287</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1361,99 +1409,237 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920135</v>
+        <v>19330051920289</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920258</v>
+        <v>19330051920293</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920403</v>
+        <v>19330051920294</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920118</v>
+        <v>19330051920296</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920297</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920299</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920301</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
   <si>
     <t>Mat</t>
   </si>
@@ -82,9 +82,54 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
     <t>ALCANTARA</t>
   </si>
   <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
     <t>AJACTLE</t>
   </si>
   <si>
@@ -103,9 +148,6 @@
     <t>LAZARO</t>
   </si>
   <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
@@ -130,24 +172,84 @@
     <t>TZANAHUA</t>
   </si>
   <si>
-    <t>TREJO</t>
-  </si>
-  <si>
     <t>XALAMIHUA</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>LLAME</t>
+  </si>
+  <si>
+    <t>MONSALVO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
     <t>SEGURA</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
     <t>OFICIAL</t>
   </si>
   <si>
@@ -157,24 +259,15 @@
     <t>VARGAS</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>CHIPAHUA</t>
   </si>
   <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
     <t>SANTOS</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>FERRAL</t>
   </si>
   <si>
@@ -187,9 +280,93 @@
     <t>ZOPIYACTLE</t>
   </si>
   <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>GUIZA</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
+  </si>
+  <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>HANNIA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ISMERAI</t>
+  </si>
+  <si>
+    <t>FERNANDA CAMILA</t>
+  </si>
+  <si>
+    <t>MELISSA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>ALMA EDITH</t>
+  </si>
+  <si>
+    <t>KATHE ALONDRA</t>
+  </si>
+  <si>
+    <t>MARLENE ALICIA</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
     <t>BITHIA MARIAN</t>
   </si>
   <si>
+    <t>IRIDIA</t>
+  </si>
+  <si>
     <t>ELISA</t>
   </si>
   <si>
@@ -211,9 +388,6 @@
     <t>ANGEL ALEXIS</t>
   </si>
   <si>
-    <t>ANGEL JARET</t>
-  </si>
-  <si>
     <t>KARLA MICHEL</t>
   </si>
   <si>
@@ -239,6 +413,63 @@
   </si>
   <si>
     <t>ORIEL</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
+  </si>
+  <si>
+    <t>BRANDON AXEL</t>
+  </si>
+  <si>
+    <t>GABRIEL MARTIN</t>
+  </si>
+  <si>
+    <t>ANGELA ALESSANDRA</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>ZAYRA JOSELIN</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>LETICIA</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>ANGEL GERARDO</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>CESAR JOVANI</t>
+  </si>
+  <si>
+    <t>KARLA DENISSE</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1207,16 +1438,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920270</v>
+        <v>18330051920321</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1230,16 +1461,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920269</v>
+        <v>19330051920287</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1253,22 +1484,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920268</v>
+        <v>19330051920126</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1276,22 +1507,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920274</v>
+        <v>19330051920127</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1299,22 +1530,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920242</v>
+        <v>19330051920380</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1322,22 +1553,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920449</v>
+        <v>19330051920132</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1345,22 +1576,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920279</v>
+        <v>19330051920134</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1368,22 +1599,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920447</v>
+        <v>19330051920002</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1391,22 +1622,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920287</v>
+        <v>19330051920137</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1414,22 +1645,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920289</v>
+        <v>19330051920140</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1437,22 +1668,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920293</v>
+        <v>19330051920143</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1460,22 +1691,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920294</v>
+        <v>19330051920144</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1483,22 +1714,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920296</v>
+        <v>19330051920147</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1506,22 +1737,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920297</v>
+        <v>19330051920266</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1529,16 +1760,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920298</v>
+        <v>19330051920270</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1547,21 +1778,21 @@
         <v>13</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920299</v>
+        <v>19330051920272</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1570,21 +1801,21 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920301</v>
+        <v>19330051920269</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1593,21 +1824,21 @@
         <v>13</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920300</v>
+        <v>19330051920268</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1616,21 +1847,21 @@
         <v>13</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920305</v>
+        <v>19330051920274</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1639,7 +1870,766 @@
         <v>13</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920449</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920289</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920294</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920296</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920297</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920298</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920299</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920300</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920248</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920249</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19330051920253</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>19330051920256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>19330051920254</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>19330051920258</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>19330051920257</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>19330051920255</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>19330051920260</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>19330051920263</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>19330051920267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>19330051920402</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>19330051920400</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>19330051920403</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>19330051920348</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>19330051920405</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>19330051920406</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -91,6 +91,12 @@
     <t>MIXCOHUA</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
@@ -122,6 +128,12 @@
   </si>
   <si>
     <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
   </si>
   <si>
     <t>KARLA MICHEL</t>
@@ -1082,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1123,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1146,10 +1158,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1169,10 +1181,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1186,53 +1198,53 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920289</v>
+        <v>19330051920102</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920246</v>
+        <v>19330051920118</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920257</v>
+        <v>19330051920289</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1241,15 +1253,61 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G7">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>

--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 2020.xlsx
@@ -88,24 +88,24 @@
     <t>PALACIOS</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>MIXCOHUA</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>CASTILLO</t>
   </si>
   <si>
@@ -127,22 +127,22 @@
     <t>CATHERIN DALAY</t>
   </si>
   <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>KARLA MICHEL</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
     <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>KARLA MICHEL</t>
-  </si>
-  <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
         <v>83.33</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1158,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920266</v>
+        <v>19330051920102</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920102</v>
+        <v>19330051920118</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920118</v>
+        <v>19330051920289</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -1236,21 +1236,21 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920289</v>
+        <v>19330051920246</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -1259,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920246</v>
+        <v>19330051920257</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920257</v>
+        <v>19330051920266</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
